--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3505489.85431673</v>
+        <v>3503237.774605524</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12561851.30939062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283206</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>103.9069048230597</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,13 +710,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>164.3182418739493</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>79.40252205331835</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>71.98153210089535</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>127.4503987265471</v>
       </c>
       <c r="F5" t="n">
-        <v>12.27673055432736</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>205.5854101330112</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>120.6353666620232</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>168.1158122680967</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>55.17585209939313</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991711</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054921</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187858</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187874</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.70843787976657</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2642147042032</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>108.2950343703207</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>117.4765410832819</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>60.78102717027292</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187881</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>126.926382450742</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>127.6065435523126</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1292.833068744076</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>926.121535257193</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4331,7 +4331,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3049.337131041367</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2795.806654315204</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2795.806654315204</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2443.037999045089</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2069.572240784009</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1679.432908808198</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064753</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080133</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796265</v>
+        <v>921.7704558796238</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796265</v>
+        <v>552.8079389392121</v>
       </c>
       <c r="D5" t="n">
-        <v>921.7704558796265</v>
+        <v>552.8079389392121</v>
       </c>
       <c r="E5" t="n">
-        <v>535.9822032813822</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919557</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1527.946633477934</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1527.946633477934</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1273.262145272047</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>1273.262145272047</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X7" t="n">
-        <v>1273.262145272047</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2782.326111562134</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y8" t="n">
-        <v>2392.186779586323</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168603</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,16 +5279,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,10 +5303,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,34 +5413,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014771</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355927</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291067998</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694694</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,43 +5577,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239583</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397155</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.65227893889</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493495</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732781</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732781</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998227</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998227</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138352</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.502065570305</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192549</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014771</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355927</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,43 +5814,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756259</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468454</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962603</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.65227893889</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493495</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732781</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732781</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138352</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192549</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014789</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,40 +6051,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756259</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756259</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>738.788911791383</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417933</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972538</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1963.765362972538</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2387.388512467605</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138352</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.502065570305</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6203,49 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192549</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014771</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355927</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291067998</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694693</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398594</v>
@@ -6291,37 +6291,37 @@
         <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H27" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516123</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793919</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793919</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1859.536823237714</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2283.159972732781</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>695.502065570305</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826423982</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138352</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.502065570305</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332398</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014788</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355943</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756259</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468454</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962603</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589153</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143758</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143758</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143758</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>741.8431516380826</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683224</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,34 +6716,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6926,37 +6926,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111739</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075831</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,34 +7400,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7451,7 +7451,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1559.490355317017</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,13 +7725,13 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.728039933368564e-11</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>38.1389282762425</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>36.41624546988356</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431647</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.32043864789156</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624844</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>31.13893193493048</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.4657939283549</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>19.50758019582716</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>676874.9361144766</v>
+        <v>676874.9361144772</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>676874.9361144766</v>
+        <v>676874.9361144765</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>676874.9361144766</v>
+        <v>676874.9361144768</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244621</v>
+      </c>
+      <c r="C2" t="n">
+        <v>759463.6371244626</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244624</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244622</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244623</v>
-      </c>
       <c r="E2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="G2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132558</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132559</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132555</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132559</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132558</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132555</v>
       </c>
       <c r="M2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132554</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132553</v>
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-5.068349040569353e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.275370186008781e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.276176019222476e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815721</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680644</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26445,16 +26445,16 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680585</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
+        <v>11776.97621680575</v>
+      </c>
+      <c r="O4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11776.97621680584</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26494,7 +26494,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-768179.0601526806</v>
+        <v>-768179.060152681</v>
       </c>
       <c r="C6" t="n">
+        <v>560565.6855749125</v>
+      </c>
+      <c r="D6" t="n">
         <v>560565.6855749118</v>
       </c>
-      <c r="D6" t="n">
-        <v>560565.6855749119</v>
-      </c>
       <c r="E6" t="n">
-        <v>308298.6368651873</v>
+        <v>308263.8989397516</v>
       </c>
       <c r="F6" t="n">
-        <v>633711.0986725426</v>
+        <v>633676.3607471068</v>
       </c>
       <c r="G6" t="n">
-        <v>633711.0986725425</v>
+        <v>633676.3607471095</v>
       </c>
       <c r="H6" t="n">
-        <v>633711.0986725425</v>
+        <v>633676.3607471073</v>
       </c>
       <c r="I6" t="n">
-        <v>633711.0986725425</v>
+        <v>633676.3607471064</v>
       </c>
       <c r="J6" t="n">
-        <v>416179.8962752648</v>
+        <v>416145.1583498298</v>
       </c>
       <c r="K6" t="n">
-        <v>633711.0986725424</v>
+        <v>633676.3607471074</v>
       </c>
       <c r="L6" t="n">
-        <v>633711.0986725427</v>
+        <v>633676.3607471046</v>
       </c>
       <c r="M6" t="n">
-        <v>548656.0707370306</v>
+        <v>548621.3328115947</v>
       </c>
       <c r="N6" t="n">
-        <v>633711.0986725424</v>
+        <v>633676.3607471065</v>
       </c>
       <c r="O6" t="n">
-        <v>633711.0986725426</v>
+        <v>633676.3607471067</v>
       </c>
       <c r="P6" t="n">
-        <v>633711.0986725424</v>
+        <v>633676.3607471067</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.031580523222125e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26750,19 +26750,19 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="L3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,13 +26802,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26817,13 +26817,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.844212732510976e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-1.526463115636274e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.844212732510976e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>302.9691409186518</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>39.59972826567085</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>87.84429904530948</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>214.5414662356957</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>254.4799713457146</v>
       </c>
       <c r="F5" t="n">
-        <v>394.5993151873841</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>13.96353914315802</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>181.1251564493163</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>314.5552485790759</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911111</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>271.1000969860418</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075168</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.385831806051</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>322.7581251333057</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437227</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485282</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418556</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460181</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>173.3851399586724</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437227</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485282</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418556</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214685</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>307.3280120589202</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366938</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321156</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214685</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485282</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>182.6892564418556</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162707</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>360.9226811202685</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>182.6892564418556</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663306</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>377.6350660745949</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,16 +34208,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,16 +34445,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630724</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316921</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112874</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992783</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625067</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789168</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243313</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603665404</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992783</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625067</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789168</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107903099</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071383</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>167.3462379728987</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924885</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L27" t="n">
-        <v>101.8925903961643</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876712</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071383</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625067</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789168</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462835</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>220.940907034247</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789168</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396443</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>235.5010321525766</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,16 +38093,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
